--- a/data/trans_orig/P50A_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P50A_2-Habitat-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6807</v>
+        <v>7102</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003180428969861738</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.00978765177803103</v>
+        <v>0.01021215918359948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7727</v>
+        <v>7873</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001620335791567402</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005660205813691897</v>
+        <v>0.005767208114904075</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3675</v>
+        <v>3894</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.001045061402799643</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.005284272130177033</v>
+        <v>0.005598500247907623</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4961</v>
+        <v>5388</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00139656421432887</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.007408736862039043</v>
+        <v>0.008046412268647189</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6671</v>
+        <v>5225</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001217483784690431</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.004886576310961803</v>
+        <v>0.00382737891691959</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>3512</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11588</v>
+        <v>10116</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005049934000767444</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001051608737532892</v>
+        <v>0.001046507193045555</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01666240161696792</v>
+        <v>0.01454556683995697</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5638</v>
+        <v>4747</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00139656421432887</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.008419809813703027</v>
+        <v>0.007088414294750959</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -918,19 +918,19 @@
         <v>4447</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1572</v>
+        <v>937</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13030</v>
+        <v>12720</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003257849556933054</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001151695119309038</v>
+        <v>0.0006861351801419281</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.009545357721962392</v>
+        <v>0.009318362380734383</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>689026</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>680792</v>
+        <v>681609</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>692975</v>
+        <v>692847</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9907245756265711</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9788843907734345</v>
+        <v>0.9800601242134283</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9964027316349574</v>
+        <v>0.9962182996375966</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>622</v>
@@ -968,7 +968,7 @@
         <v>667749</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>663944</v>
+        <v>662327</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>669619</v>
@@ -977,7 +977,7 @@
         <v>0.9972068715713422</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9915244217505813</v>
+        <v>0.9891095970225586</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -989,19 +989,19 @@
         <v>1356775</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1347430</v>
+        <v>1347014</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1361555</v>
+        <v>1361507</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9939043308668091</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9870589633940144</v>
+        <v>0.9867539287729505</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9974060085851647</v>
+        <v>0.9973708205436621</v>
       </c>
     </row>
     <row r="8">
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4610</v>
+        <v>4648</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0009260537000031471</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.004637510020391014</v>
+        <v>0.004675104356566016</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5133</v>
+        <v>5513</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0004634795438344179</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.002584029666850536</v>
+        <v>0.002775606588507183</v>
       </c>
     </row>
     <row r="10">
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6905</v>
+        <v>7126</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002017933546278551</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006945800288909233</v>
+        <v>0.007167488096029991</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7174</v>
+        <v>7127</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001009953223570268</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.003611760377273123</v>
+        <v>0.003587847814613385</v>
       </c>
     </row>
     <row r="11">
@@ -1219,19 +1219,19 @@
         <v>8938</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4247</v>
+        <v>3602</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17261</v>
+        <v>16377</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008990852006369121</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004272380976566349</v>
+        <v>0.003623546085008335</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01736315717195183</v>
+        <v>0.01647342586989976</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1240,19 +1240,19 @@
         <v>3936</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12349</v>
+        <v>11640</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003967412480429424</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001042110949587013</v>
+        <v>0.001039156206728277</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01244631768530968</v>
+        <v>0.01173186720463864</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -1261,19 +1261,19 @@
         <v>12875</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6484</v>
+        <v>6924</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21900</v>
+        <v>22646</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006481587911027458</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003264266174530858</v>
+        <v>0.003485595496229369</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0110252346249373</v>
+        <v>0.01140100640039259</v>
       </c>
     </row>
     <row r="12">
@@ -1290,19 +1290,19 @@
         <v>982279</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>972802</v>
+        <v>973092</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>988038</v>
+        <v>988060</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9880651607473492</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.978531871225676</v>
+        <v>0.9788241845220478</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.993858531619336</v>
+        <v>0.993880654209788</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>903</v>
@@ -1311,19 +1311,19 @@
         <v>988266</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>979853</v>
+        <v>980562</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>991168</v>
+        <v>991171</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9960325875195706</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.98755368231469</v>
+        <v>0.9882681327953613</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9989578890504129</v>
+        <v>0.9989608437932717</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1806</v>
@@ -1332,19 +1332,19 @@
         <v>1970545</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1960985</v>
+        <v>1960832</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1977782</v>
+        <v>1977792</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9920449793215679</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.987232310284358</v>
+        <v>0.9871551035033714</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9956886909232096</v>
+        <v>0.9956934660393261</v>
       </c>
     </row>
     <row r="13">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4805</v>
+        <v>4821</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001277657133087096</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.006441224772810492</v>
+        <v>0.00646248463302113</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4996</v>
+        <v>5044</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001351664958418745</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.006741116225216719</v>
+        <v>0.006806342920336163</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6295</v>
+        <v>6780</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001314539456028825</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.004233383458252117</v>
+        <v>0.004559674488465597</v>
       </c>
     </row>
     <row r="16">
@@ -1554,19 +1554,19 @@
         <v>6996</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2805</v>
+        <v>3032</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16575</v>
+        <v>18437</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009379097549843299</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003760014744748799</v>
+        <v>0.004065144373081642</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02222011723776608</v>
+        <v>0.02471646561849012</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1575,19 +1575,19 @@
         <v>4068</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1067</v>
+        <v>1008</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10006</v>
+        <v>10102</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005488841805059408</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001439785287668706</v>
+        <v>0.001360553614634179</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01350155056653183</v>
+        <v>0.01363113284757454</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1596,19 +1596,19 @@
         <v>11064</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5633</v>
+        <v>5781</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21112</v>
+        <v>20956</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007440361097825462</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003788144422229852</v>
+        <v>0.003887347374167125</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0141977168199915</v>
+        <v>0.01409281407034437</v>
       </c>
     </row>
     <row r="17">
@@ -1625,19 +1625,19 @@
         <v>738001</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>729048</v>
+        <v>727504</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>742904</v>
+        <v>742107</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9893432453170696</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.977341845892468</v>
+        <v>0.9752714657446655</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9959165367503218</v>
+        <v>0.9948476336252107</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>666</v>
@@ -1646,19 +1646,19 @@
         <v>735995</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>729863</v>
+        <v>729925</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>739072</v>
+        <v>739084</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9931594932365219</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9848859000153821</v>
+        <v>0.9849686528862048</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9973126299338005</v>
+        <v>0.9973282408817866</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1337</v>
@@ -1667,19 +1667,19 @@
         <v>1473995</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1464174</v>
+        <v>1463377</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1480072</v>
+        <v>1480082</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9912450994461457</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9846401047550296</v>
+        <v>0.9841043901436191</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9953315211909829</v>
+        <v>0.9953381859878155</v>
       </c>
     </row>
     <row r="18">
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5519</v>
+        <v>5503</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001963963046392149</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.005986944477962734</v>
+        <v>0.005969689420293812</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6238</v>
+        <v>6031</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0009400950821740176</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.003238960230614183</v>
+        <v>0.003131559943436295</v>
       </c>
     </row>
     <row r="20">
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4925</v>
+        <v>5191</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00101643219364172</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.005342060428671911</v>
+        <v>0.005631286969965243</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4693</v>
+        <v>4709</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0004865381292999821</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.00243671378364067</v>
+        <v>0.002445292580685285</v>
       </c>
     </row>
     <row r="21">
@@ -1897,19 +1897,19 @@
         <v>8983</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3936</v>
+        <v>4098</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17559</v>
+        <v>17370</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.009744084496549232</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004269748261096113</v>
+        <v>0.004445190965842421</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01904770094915247</v>
+        <v>0.01884251687142821</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -1918,19 +1918,19 @@
         <v>5885</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1963</v>
+        <v>1972</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11920</v>
+        <v>12734</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.00586191028368626</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001955500773824794</v>
+        <v>0.001964346833757733</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01187251907137822</v>
+        <v>0.01268294282279973</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
@@ -1939,19 +1939,19 @@
         <v>14868</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8740</v>
+        <v>8815</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>24775</v>
+        <v>25468</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.007720200281738769</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004538027797008213</v>
+        <v>0.004576988403755059</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01286433128742372</v>
+        <v>0.01322422779044526</v>
       </c>
     </row>
     <row r="22">
@@ -1968,19 +1968,19 @@
         <v>910135</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>900843</v>
+        <v>900984</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>916000</v>
+        <v>915380</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9872755202634169</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9771965581573105</v>
+        <v>0.9773488413179694</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9936375691475642</v>
+        <v>0.9929650827190782</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>951</v>
@@ -1989,19 +1989,19 @@
         <v>998128</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>992093</v>
+        <v>991279</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1002050</v>
+        <v>1002041</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9941380897163138</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9881274809286219</v>
+        <v>0.9873170571772002</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9980444992261752</v>
+        <v>0.9980356531662422</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1828</v>
@@ -2010,19 +2010,19 @@
         <v>1908261</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1898334</v>
+        <v>1897671</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1915382</v>
+        <v>1915067</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9908531665067872</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9856983993296848</v>
+        <v>0.9853541825257002</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9945507764371304</v>
+        <v>0.9943868503372446</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>4943</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11096</v>
+        <v>10865</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001472270383916914</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0005453310608938806</v>
+        <v>0.00054287636245318</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.003304789747525203</v>
+        <v>0.003236112905142191</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2148,19 +2148,19 @@
         <v>4943</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1807</v>
+        <v>1825</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10954</v>
+        <v>11136</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0007307523325657262</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0002670705145496063</v>
+        <v>0.0002698368074003143</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.001619365655805675</v>
+        <v>0.001646320023808654</v>
       </c>
     </row>
     <row r="25">
@@ -2177,19 +2177,19 @@
         <v>4623</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1034</v>
+        <v>1773</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10563</v>
+        <v>11389</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001376947980237191</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.000308105350030622</v>
+        <v>0.0005281536289268225</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.003146025843631678</v>
+        <v>0.003392315832686092</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6756</v>
+        <v>7731</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0005685044069917229</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.001983111449467761</v>
+        <v>0.002269187279033626</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -2219,19 +2219,19 @@
         <v>6560</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2860</v>
+        <v>2611</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13567</v>
+        <v>12090</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0009697703927444022</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0004228317915349355</v>
+        <v>0.0003860561376406319</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.002005715929513579</v>
+        <v>0.001787284901336129</v>
       </c>
     </row>
     <row r="26">
@@ -2248,19 +2248,19 @@
         <v>28429</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18086</v>
+        <v>18446</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42596</v>
+        <v>42069</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008467587644503722</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005386782456711061</v>
+        <v>0.005494050204399616</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01268712289297392</v>
+        <v>0.01253000566709417</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2269,19 +2269,19 @@
         <v>14825</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8783</v>
+        <v>7914</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24755</v>
+        <v>23854</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004351364805785372</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002578055565459331</v>
+        <v>0.002322960422268654</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.007266002885027175</v>
+        <v>0.007001633430598481</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -2290,19 +2290,19 @@
         <v>43254</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30689</v>
+        <v>31688</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>58804</v>
+        <v>60930</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006394426646607878</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004536950838139364</v>
+        <v>0.0046846173640552</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008693238561115157</v>
+        <v>0.009007574138601905</v>
       </c>
     </row>
     <row r="27">
@@ -2319,19 +2319,19 @@
         <v>3319440</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3303935</v>
+        <v>3305010</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3332114</v>
+        <v>3331236</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9886831939913422</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9840651085139377</v>
+        <v>0.9843853701452134</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9924582465484286</v>
+        <v>0.9921968479551507</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3142</v>
@@ -2340,19 +2340,19 @@
         <v>3390137</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3379951</v>
+        <v>3380192</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3396989</v>
+        <v>3397286</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9950801307872229</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9920903653755587</v>
+        <v>0.9921611097935504</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9970914395578395</v>
+        <v>0.9971786222826072</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6253</v>
@@ -2361,19 +2361,19 @@
         <v>6709577</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6691715</v>
+        <v>6691446</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6724010</v>
+        <v>6722711</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.991905050628082</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9892643630682907</v>
+        <v>0.9892247076510332</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9940387000283887</v>
+        <v>0.9938466919579966</v>
       </c>
     </row>
     <row r="28">
@@ -2799,19 +2799,19 @@
         <v>4411</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1067</v>
+        <v>1110</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10324</v>
+        <v>11118</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00670971519109707</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001623459766134565</v>
+        <v>0.001688909655624269</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01570462499263216</v>
+        <v>0.01691235937122382</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6214</v>
+        <v>5879</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002762015815211499</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.009708088664029496</v>
+        <v>0.00918479349126847</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -2841,19 +2841,19 @@
         <v>6179</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2179</v>
+        <v>2348</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12560</v>
+        <v>12885</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004762202325119124</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001679406270644187</v>
+        <v>0.001809817638543294</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.009680793504723886</v>
+        <v>0.009931450941301231</v>
       </c>
     </row>
     <row r="7">
@@ -2870,19 +2870,19 @@
         <v>652964</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>647051</v>
+        <v>646257</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>656308</v>
+        <v>656265</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9932902848089029</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9842953750073675</v>
+        <v>0.9830876406287764</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9983765402338655</v>
+        <v>0.9983110903443757</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>633</v>
@@ -2891,7 +2891,7 @@
         <v>638296</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>633850</v>
+        <v>634185</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>640064</v>
@@ -2900,7 +2900,7 @@
         <v>0.9972379841847885</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9902919113359703</v>
+        <v>0.990815206508732</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -2912,19 +2912,19 @@
         <v>1291260</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1284879</v>
+        <v>1284554</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1295260</v>
+        <v>1295091</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9952377976748809</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9903192064952767</v>
+        <v>0.990068549058699</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9983205937293559</v>
+        <v>0.998190182361457</v>
       </c>
     </row>
     <row r="8">
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6037</v>
+        <v>5444</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001068062111497642</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.005944031974672674</v>
+        <v>0.005359779436620746</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7466</v>
+        <v>5453</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0005363828595424816</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003691580691427106</v>
+        <v>0.002696309690020565</v>
       </c>
     </row>
     <row r="10">
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4658</v>
+        <v>4674</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0009099962458215842</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.004586097675498249</v>
+        <v>0.004602229274075261</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4623</v>
+        <v>5690</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0004570018758761877</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.002286109178491906</v>
+        <v>0.002813302333909337</v>
       </c>
     </row>
     <row r="11">
@@ -3142,19 +3142,19 @@
         <v>4232</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10399</v>
+        <v>10584</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004204021922447201</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001101146456885306</v>
+        <v>0.001099439032839464</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01032953847062887</v>
+        <v>0.01051322866333165</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7147</v>
+        <v>5561</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001062146925776396</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.007036457203429247</v>
+        <v>0.005475053689237735</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -3184,19 +3184,19 @@
         <v>5311</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2068</v>
+        <v>2056</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11766</v>
+        <v>11673</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002626166218272611</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00102241269596184</v>
+        <v>0.001016477749402153</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.00581815861392834</v>
+        <v>0.005771765677926653</v>
       </c>
     </row>
     <row r="12">
@@ -3213,19 +3213,19 @@
         <v>1002500</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>996333</v>
+        <v>996148</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1005623</v>
+        <v>1005625</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9957959780775528</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9896704615293711</v>
+        <v>0.9894867713366684</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9988988535431147</v>
+        <v>0.9989005609671605</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>951</v>
@@ -3234,19 +3234,19 @@
         <v>1012551</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1007022</v>
+        <v>1006991</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1014728</v>
+        <v>1014715</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9969597947169043</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9915152775594117</v>
+        <v>0.9914850691652856</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.999103394176489</v>
+        <v>0.9990901085285894</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1883</v>
@@ -3255,19 +3255,19 @@
         <v>2015051</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2007693</v>
+        <v>2007773</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2019209</v>
+        <v>2019218</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9963804490463087</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9927419575934566</v>
+        <v>0.9927815289053172</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9984363099673952</v>
+        <v>0.9984408026740424</v>
       </c>
     </row>
     <row r="13">
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5159</v>
+        <v>5866</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001393033880097801</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.00693974796025579</v>
+        <v>0.007890943485961721</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5196</v>
+        <v>5587</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0007023222055492427</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.00352381597688072</v>
+        <v>0.003789386234783725</v>
       </c>
     </row>
     <row r="15">
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7349</v>
+        <v>7192</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.002880997097630063</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01005223548315269</v>
+        <v>0.009837671120283737</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6360</v>
+        <v>7371</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001428492413647462</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.004313731121937112</v>
+        <v>0.004998983217347009</v>
       </c>
     </row>
     <row r="16">
@@ -3485,19 +3485,19 @@
         <v>10894</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4919</v>
+        <v>4728</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21241</v>
+        <v>20304</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01490170816990677</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006728921702547823</v>
+        <v>0.006467582476040297</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02905398961713354</v>
+        <v>0.02777237163922419</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -3506,19 +3506,19 @@
         <v>5119</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1920</v>
+        <v>1931</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11259</v>
+        <v>11342</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006885534523785275</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002583301179077215</v>
+        <v>0.002597840966940271</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01514613285138521</v>
+        <v>0.01525732725610075</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -3527,19 +3527,19 @@
         <v>16013</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8888</v>
+        <v>9402</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26681</v>
+        <v>26314</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01086021511245543</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006027732873896376</v>
+        <v>0.006376809777714132</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01809553905166187</v>
+        <v>0.0178466105771319</v>
       </c>
     </row>
     <row r="17">
@@ -3556,19 +3556,19 @@
         <v>718085</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>708784</v>
+        <v>708094</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>724683</v>
+        <v>724540</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9822172947324632</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9694943301616276</v>
+        <v>0.9685513492675635</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9912422547658315</v>
+        <v>0.9910460019193635</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>693</v>
@@ -3577,19 +3577,19 @@
         <v>737221</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>731146</v>
+        <v>730660</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>741357</v>
+        <v>740599</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9917214315961169</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9835497334732609</v>
+        <v>0.9828961686480338</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9972849363083605</v>
+        <v>0.9962654826871448</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1350</v>
@@ -3598,19 +3598,19 @@
         <v>1455307</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1444037</v>
+        <v>1444182</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1463174</v>
+        <v>1462570</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9870089702683479</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9793655239613371</v>
+        <v>0.9794638865492932</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9923444041638455</v>
+        <v>0.9919347927576454</v>
       </c>
     </row>
     <row r="18">
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5317</v>
+        <v>5528</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0009935977634027129</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.005252330413561317</v>
+        <v>0.005461048359559574</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5076</v>
+        <v>5424</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0005205507764771214</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002627168291969371</v>
+        <v>0.002807359692606856</v>
       </c>
     </row>
     <row r="20">
@@ -3812,19 +3812,19 @@
         <v>3956</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>928</v>
+        <v>1052</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10044</v>
+        <v>9189</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00430103183651713</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001008537563691696</v>
+        <v>0.001143316794712972</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01091925111051967</v>
+        <v>0.009989204467156109</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4986</v>
+        <v>5505</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0009848760896811143</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.00492557483082555</v>
+        <v>0.005438588056901402</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -3854,19 +3854,19 @@
         <v>4953</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1881</v>
+        <v>1914</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10915</v>
+        <v>10850</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.002563681459415987</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.000973777336926713</v>
+        <v>0.0009904446270477909</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.005649397286076593</v>
+        <v>0.005615474159151373</v>
       </c>
     </row>
     <row r="22">
@@ -3883,19 +3883,19 @@
         <v>915904</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>909816</v>
+        <v>910671</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>918932</v>
+        <v>918808</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9956989681634829</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9890807488894804</v>
+        <v>0.990010795532844</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9989914624363083</v>
+        <v>0.9988566832052871</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>928</v>
@@ -3904,7 +3904,7 @@
         <v>1010230</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1006137</v>
+        <v>1005196</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>1012233</v>
@@ -3913,7 +3913,7 @@
         <v>0.9980215261469162</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.993977258007218</v>
+        <v>0.9930476000524791</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -3925,19 +3925,19 @@
         <v>1926135</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1919363</v>
+        <v>1919800</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1929973</v>
+        <v>1929969</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9969157677641068</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9934108443855129</v>
+        <v>0.9936369669028872</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.998902022571746</v>
+        <v>0.9989000525888337</v>
       </c>
     </row>
     <row r="23">
@@ -4042,19 +4042,19 @@
         <v>3126</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8990</v>
+        <v>8654</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.000916382315565135</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0002955418389579387</v>
+        <v>0.0002941037796982606</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.002635414163114389</v>
+        <v>0.002536965543976975</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -4063,19 +4063,19 @@
         <v>3126</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8372</v>
+        <v>8314</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0004647480634722866</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0001494502215636838</v>
+        <v>0.000149606302619143</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.001244654615026064</v>
+        <v>0.001236049293121655</v>
       </c>
     </row>
     <row r="25">
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7395</v>
+        <v>8405</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0006353613963455139</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.002230847996549614</v>
+        <v>0.002535522733566361</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4021</v>
+        <v>4669</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0002709302297208436</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.001178852583975388</v>
+        <v>0.001368750164057242</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -4134,19 +4134,19 @@
         <v>3030</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8625</v>
+        <v>8065</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.000450538232387672</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0001372411563377017</v>
+        <v>0.0001371244247764709</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.001282221476927174</v>
+        <v>0.001198944718772212</v>
       </c>
     </row>
     <row r="26">
@@ -4163,19 +4163,19 @@
         <v>23494</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14617</v>
+        <v>14825</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>35491</v>
+        <v>35676</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007087035999227424</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004409273821917155</v>
+        <v>0.00447205912908455</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01070601318270951</v>
+        <v>0.01076184272166633</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -4184,19 +4184,19 @@
         <v>8962</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4614</v>
+        <v>4155</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16568</v>
+        <v>17059</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002627167341459203</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001352571546998968</v>
+        <v>0.001217914577801229</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.004856810729580491</v>
+        <v>0.005000636427744375</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -4205,19 +4205,19 @@
         <v>32456</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22228</v>
+        <v>21903</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>45706</v>
+        <v>45784</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004825190384321293</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003304558166128699</v>
+        <v>0.003256250156746287</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006795011372864064</v>
+        <v>0.006806619402515391</v>
       </c>
     </row>
     <row r="27">
@@ -4234,19 +4234,19 @@
         <v>3289454</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3276598</v>
+        <v>3276688</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3298950</v>
+        <v>3298491</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9922776026044271</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9883995075419447</v>
+        <v>0.9884266476986872</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9951422216287852</v>
+        <v>0.9950035653769209</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3205</v>
@@ -4255,19 +4255,19 @@
         <v>3398299</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3389358</v>
+        <v>3389448</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3403745</v>
+        <v>3404211</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9961855201132548</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9935646965495846</v>
+        <v>0.9935911523431925</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9977821696980299</v>
+        <v>0.9979186610667246</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6333</v>
@@ -4276,19 +4276,19 @@
         <v>6687752</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6672812</v>
+        <v>6672896</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6698917</v>
+        <v>6699039</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9942595233198187</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9920382845595517</v>
+        <v>0.9920507853162511</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9959193184005308</v>
+        <v>0.9959374488346675</v>
       </c>
     </row>
     <row r="28">
